--- a/Excel/4_2 DATA afr/Kort_kursusse.xlsx
+++ b/Excel/4_2 DATA afr/Kort_kursusse.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Sandra\Documents\00000 CAT Gr10\DVD CAT Gr10 2nd TEACHER\RTT Gr10 Afrikaans\2 DATA vir leerders\4_2 DATA afr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Skool Werk\Excel\4_2 DATA afr\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <definedNames>
+    <definedName name="Koste">Sheet1!$J$3</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -533,23 +536,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -585,23 +571,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -756,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -816,8 +785,14 @@
       <c r="D3" s="4">
         <v>1</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="6"/>
+      <c r="G3" s="3">
+        <f>SUM(D3:F3)</f>
+        <v>1</v>
+      </c>
+      <c r="H3" s="6">
+        <f>G3*Koste</f>
+        <v>510</v>
+      </c>
       <c r="J3" s="9">
         <v>510</v>
       </c>
@@ -835,8 +810,14 @@
       <c r="F4" s="4">
         <v>1</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="6"/>
+      <c r="G4" s="3">
+        <f t="shared" ref="G4:G43" si="0">SUM(D4:F4)</f>
+        <v>1</v>
+      </c>
+      <c r="H4" s="6">
+        <f>G4*Koste</f>
+        <v>510</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -848,8 +829,14 @@
       <c r="C5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="6"/>
+      <c r="G5" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <f>G5*Koste</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -867,8 +854,14 @@
       <c r="E6" s="4">
         <v>1</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="6"/>
+      <c r="G6" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H6" s="6">
+        <f>G6*Koste</f>
+        <v>1020</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -883,8 +876,14 @@
       <c r="F7" s="4">
         <v>1</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="6"/>
+      <c r="G7" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H7" s="6">
+        <f>G7*Koste</f>
+        <v>510</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -899,8 +898,14 @@
       <c r="E8" s="4">
         <v>1</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="6"/>
+      <c r="G8" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H8" s="6">
+        <f>G8*Koste</f>
+        <v>510</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -915,8 +920,14 @@
       <c r="D9" s="4">
         <v>1</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="6"/>
+      <c r="G9" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H9" s="6">
+        <f>G9*Koste</f>
+        <v>510</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -931,8 +942,14 @@
       <c r="D10" s="4">
         <v>1</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="6"/>
+      <c r="G10" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H10" s="6">
+        <f>G10*Koste</f>
+        <v>510</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -950,8 +967,14 @@
       <c r="F11" s="4">
         <v>1</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="6"/>
+      <c r="G11" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H11" s="6">
+        <f>G11*Koste</f>
+        <v>1020</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -963,8 +986,14 @@
       <c r="C12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="6"/>
+      <c r="G12" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="6">
+        <f>G12*Koste</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -985,8 +1014,14 @@
       <c r="F13" s="4">
         <v>1</v>
       </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="6"/>
+      <c r="G13" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H13" s="6">
+        <f>G13*Koste</f>
+        <v>1530</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -1001,8 +1036,14 @@
       <c r="F14" s="4">
         <v>1</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="6"/>
+      <c r="G14" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H14" s="6">
+        <f>G14*Koste</f>
+        <v>510</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -1020,8 +1061,14 @@
       <c r="E15" s="4">
         <v>1</v>
       </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="6"/>
+      <c r="G15" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H15" s="6">
+        <f>G15*Koste</f>
+        <v>1020</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -1036,8 +1083,14 @@
       <c r="F16" s="4">
         <v>1</v>
       </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="6"/>
+      <c r="G16" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H16" s="6">
+        <f>G16*Koste</f>
+        <v>510</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -1052,8 +1105,14 @@
       <c r="D17" s="4">
         <v>1</v>
       </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="6"/>
+      <c r="G17" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H17" s="6">
+        <f>G17*Koste</f>
+        <v>510</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -1068,8 +1127,14 @@
       <c r="E18" s="4">
         <v>1</v>
       </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="6"/>
+      <c r="G18" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H18" s="6">
+        <f>G18*Koste</f>
+        <v>510</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -1087,8 +1152,14 @@
       <c r="E19" s="4">
         <v>1</v>
       </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="6"/>
+      <c r="G19" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H19" s="6">
+        <f>G19*Koste</f>
+        <v>1020</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -1103,8 +1174,14 @@
       <c r="D20" s="4">
         <v>1</v>
       </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="6"/>
+      <c r="G20" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H20" s="6">
+        <f>G20*Koste</f>
+        <v>510</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -1122,8 +1199,14 @@
       <c r="E21" s="4">
         <v>1</v>
       </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="6"/>
+      <c r="G21" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H21" s="6">
+        <f>G21*Koste</f>
+        <v>1020</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -1138,8 +1221,14 @@
       <c r="D22" s="4">
         <v>1</v>
       </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="6"/>
+      <c r="G22" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H22" s="6">
+        <f>G22*Koste</f>
+        <v>510</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -1154,8 +1243,14 @@
       <c r="D23" s="4">
         <v>1</v>
       </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="6"/>
+      <c r="G23" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H23" s="6">
+        <f>G23*Koste</f>
+        <v>510</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -1170,8 +1265,14 @@
       <c r="E24" s="4">
         <v>1</v>
       </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="6"/>
+      <c r="G24" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H24" s="6">
+        <f>G24*Koste</f>
+        <v>510</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -1186,8 +1287,14 @@
       <c r="F25" s="4">
         <v>1</v>
       </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="6"/>
+      <c r="G25" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H25" s="6">
+        <f>G25*Koste</f>
+        <v>510</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -1202,8 +1309,14 @@
       <c r="E26" s="4">
         <v>1</v>
       </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="6"/>
+      <c r="G26" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H26" s="6">
+        <f>G26*Koste</f>
+        <v>510</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -1218,8 +1331,14 @@
       <c r="E27" s="4">
         <v>1</v>
       </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="6"/>
+      <c r="G27" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H27" s="6">
+        <f>G27*Koste</f>
+        <v>510</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -1234,8 +1353,14 @@
       <c r="D28" s="4">
         <v>1</v>
       </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="6"/>
+      <c r="G28" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H28" s="6">
+        <f>G28*Koste</f>
+        <v>510</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -1250,8 +1375,14 @@
       <c r="D29" s="4">
         <v>1</v>
       </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="6"/>
+      <c r="G29" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H29" s="6">
+        <f>G29*Koste</f>
+        <v>510</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -1269,8 +1400,14 @@
       <c r="F30" s="4">
         <v>1</v>
       </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="6"/>
+      <c r="G30" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H30" s="6">
+        <f>G30*Koste</f>
+        <v>1020</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
@@ -1285,8 +1422,14 @@
       <c r="E31" s="4">
         <v>1</v>
       </c>
-      <c r="G31" s="3"/>
-      <c r="H31" s="6"/>
+      <c r="G31" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H31" s="6">
+        <f>G31*Koste</f>
+        <v>510</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -1301,8 +1444,14 @@
       <c r="F32" s="4">
         <v>1</v>
       </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="6"/>
+      <c r="G32" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H32" s="6">
+        <f>G32*Koste</f>
+        <v>510</v>
+      </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
@@ -1323,8 +1472,14 @@
       <c r="F33" s="4">
         <v>1</v>
       </c>
-      <c r="G33" s="3"/>
-      <c r="H33" s="6"/>
+      <c r="G33" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H33" s="6">
+        <f>G33*Koste</f>
+        <v>1530</v>
+      </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
@@ -1339,8 +1494,14 @@
       <c r="E34" s="4">
         <v>1</v>
       </c>
-      <c r="G34" s="3"/>
-      <c r="H34" s="6"/>
+      <c r="G34" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H34" s="6">
+        <f>G34*Koste</f>
+        <v>510</v>
+      </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
@@ -1355,8 +1516,14 @@
       <c r="F35" s="4">
         <v>1</v>
       </c>
-      <c r="G35" s="3"/>
-      <c r="H35" s="6"/>
+      <c r="G35" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H35" s="6">
+        <f>G35*Koste</f>
+        <v>510</v>
+      </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
@@ -1368,8 +1535,14 @@
       <c r="C36" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G36" s="3"/>
-      <c r="H36" s="6"/>
+      <c r="G36" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="6">
+        <f>G36*Koste</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
@@ -1387,8 +1560,14 @@
       <c r="E37" s="4">
         <v>1</v>
       </c>
-      <c r="G37" s="3"/>
-      <c r="H37" s="6"/>
+      <c r="G37" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H37" s="6">
+        <f>G37*Koste</f>
+        <v>1020</v>
+      </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
@@ -1400,8 +1579,14 @@
       <c r="C38" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G38" s="3"/>
-      <c r="H38" s="6"/>
+      <c r="G38" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="6">
+        <f>G38*Koste</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
@@ -1416,8 +1601,14 @@
       <c r="E39" s="4">
         <v>1</v>
       </c>
-      <c r="G39" s="3"/>
-      <c r="H39" s="6"/>
+      <c r="G39" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H39" s="6">
+        <f>G39*Koste</f>
+        <v>510</v>
+      </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
@@ -1429,8 +1620,14 @@
       <c r="C40" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G40" s="3"/>
-      <c r="H40" s="6"/>
+      <c r="G40" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H40" s="6">
+        <f>G40*Koste</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
@@ -1451,8 +1648,14 @@
       <c r="F41" s="4">
         <v>1</v>
       </c>
-      <c r="G41" s="3"/>
-      <c r="H41" s="6"/>
+      <c r="G41" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H41" s="6">
+        <f>G41*Koste</f>
+        <v>1530</v>
+      </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
@@ -1464,8 +1667,14 @@
       <c r="C42" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G42" s="3"/>
-      <c r="H42" s="6"/>
+      <c r="G42" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="6">
+        <f>G42*Koste</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
@@ -1480,20 +1689,32 @@
       <c r="E43" s="4">
         <v>1</v>
       </c>
-      <c r="G43" s="3"/>
-      <c r="H43" s="6"/>
+      <c r="G43" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H43" s="6">
+        <f>G43*Koste</f>
+        <v>510</v>
+      </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="H45" s="12"/>
+      <c r="H45" s="12">
+        <f>SUM(H3:H43)</f>
+        <v>24480</v>
+      </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B46" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H46" s="12"/>
+      <c r="H46" s="12">
+        <f>AVERAGE(H3:H43)</f>
+        <v>597.07317073170736</v>
+      </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
